--- a/src/main/resources/ApiTestData.xlsx
+++ b/src/main/resources/ApiTestData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rijsanyal/Documents/Track Change Assignment/AmazonTestAutomation/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEE0179-19FC-E244-BFAD-D555DC14758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94697129-23D9-5E44-8750-003BE93928E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" activeTab="1" xr2:uid="{28FFF262-0E59-EF46-BCC3-4CA21038B38D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" activeTab="4" xr2:uid="{28FFF262-0E59-EF46-BCC3-4CA21038B38D}"/>
   </bookViews>
   <sheets>
     <sheet name="AuthData" sheetId="6" r:id="rId1"/>
     <sheet name="CreateBooking" sheetId="1" r:id="rId2"/>
     <sheet name="UpdateBooking" sheetId="2" r:id="rId3"/>
     <sheet name="DeleteBooking" sheetId="3" r:id="rId4"/>
+    <sheet name="GetBooking" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>URL</t>
   </si>
@@ -164,13 +165,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459EA0B8-3014-5C46-8FFC-94FCD03D9883}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+    <sheetView zoomScale="141" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -701,7 +714,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="261" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -730,4 +743,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F86FB83-B805-6A48-8312-3D84F5BC2903}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="284" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="42.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>